--- a/planilhas/PROGRAD.xlsx
+++ b/planilhas/PROGRAD.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91080150900\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8499597-1029-487A-8BA0-A2B9BF1E07FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidade XXX" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Unidade XXX'!$A$1:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Unidade XXX'!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor desconhecido</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>N. Patrimônio</t>
   </si>
@@ -112,9 +113,6 @@
   </si>
   <si>
     <t>Não</t>
-  </si>
-  <si>
-    <t>Levantamento dos aparelhos de ar-condicionado da PROGRAD</t>
   </si>
   <si>
     <t>LG</t>
@@ -204,11 +202,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,19 +227,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,15 +260,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -330,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,14 +314,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,25 +327,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -635,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,79 +620,117 @@
     <col min="10" max="10" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>171339</v>
+      </c>
+      <c r="B2" s="3">
+        <v>317</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7488</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>171696</v>
+      </c>
+      <c r="B3" s="3">
+        <v>317</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
+      <c r="F3" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>171339</v>
+        <v>13437</v>
       </c>
       <c r="B4" s="3">
         <v>317</v>
       </c>
       <c r="C4" s="3">
-        <v>7488</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>8132</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3">
         <v>9000</v>
@@ -740,431 +742,431 @@
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>171696</v>
+      <c r="A5" s="7">
+        <v>402833</v>
       </c>
       <c r="B5" s="3">
         <v>317</v>
       </c>
-      <c r="C5" s="6">
-        <v>8131</v>
+      <c r="C5" s="3">
+        <v>8134</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
         <v>12000</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>13437</v>
+      <c r="A6" s="7">
+        <v>21249</v>
       </c>
       <c r="B6" s="3">
         <v>317</v>
       </c>
-      <c r="C6" s="6">
-        <v>8132</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6">
-        <v>9000</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
+      <c r="C6" s="3">
+        <v>8134</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>402833</v>
+      <c r="A7" s="7">
+        <v>171341</v>
       </c>
       <c r="B7" s="3">
         <v>317</v>
       </c>
-      <c r="C7" s="6">
-        <v>8134</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5">
+        <v>8136</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
         <v>12000</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>21249</v>
+      <c r="A8" s="7">
+        <v>316545</v>
       </c>
       <c r="B8" s="3">
         <v>317</v>
       </c>
-      <c r="C8" s="6">
-        <v>8134</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="C8" s="3">
+        <v>8136</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>171341</v>
+      <c r="A9" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>317</v>
       </c>
-      <c r="C9" s="5">
-        <v>8136</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3">
+        <v>8138</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>316545</v>
+      <c r="A10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>317</v>
       </c>
-      <c r="C10" s="6">
-        <v>8136</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3">
+        <v>8138</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
+      <c r="A11" s="7">
+        <v>171340</v>
       </c>
       <c r="B11" s="3">
         <v>317</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>8138</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
+      <c r="A12" s="7">
+        <v>172556</v>
       </c>
       <c r="B12" s="3">
         <v>317</v>
       </c>
-      <c r="C12" s="6">
-        <v>8138</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3">
+        <v>10783</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>171340</v>
+      <c r="A13" s="7">
+        <v>316546</v>
       </c>
       <c r="B13" s="3">
         <v>317</v>
       </c>
-      <c r="C13" s="6">
-        <v>8138</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="3">
+        <v>10782</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>172556</v>
+      <c r="A14" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>317</v>
       </c>
-      <c r="C14" s="6">
-        <v>10783</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="3">
+        <v>10782</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>316546</v>
+      <c r="A15" s="7">
+        <v>121114</v>
       </c>
       <c r="B15" s="3">
         <v>317</v>
       </c>
-      <c r="C15" s="6">
-        <v>10782</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="3">
+        <v>7569</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
         <v>12000</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
+      <c r="A16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>317</v>
       </c>
-      <c r="C16" s="6">
-        <v>10782</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3">
+        <v>8143</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>121114</v>
+      <c r="A17" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>317</v>
       </c>
-      <c r="C17" s="6">
-        <v>7569</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="3">
+        <v>8142</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>16</v>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
+      <c r="A18" s="3">
+        <v>402834</v>
       </c>
       <c r="B18" s="3">
         <v>317</v>
@@ -1172,296 +1174,256 @@
       <c r="C18" s="3">
         <v>8143</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6">
-        <v>24000</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>11</v>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>36</v>
+      <c r="A19" s="3">
+        <v>170582</v>
       </c>
       <c r="B19" s="3">
         <v>317</v>
       </c>
       <c r="C19" s="3">
-        <v>8142</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>8143</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3">
         <v>9000</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>16</v>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>402834</v>
+      <c r="A20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="3">
         <v>317</v>
       </c>
       <c r="C20" s="3">
-        <v>8143</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>8145</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>16</v>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>170582</v>
+      <c r="A21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="3">
-        <v>317</v>
+        <v>455</v>
       </c>
       <c r="C21" s="3">
-        <v>8143</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>12182</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6">
-        <v>9000</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J21" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="3">
-        <v>317</v>
-      </c>
-      <c r="C22" s="6">
-        <v>8145</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6">
-        <v>9000</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="6">
-        <v>455</v>
-      </c>
-      <c r="C23" s="6">
-        <v>12182</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="6">
-        <v>12000</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -13068,35 +13030,9 @@
       <c r="I999" s="4"/>
       <c r="J999" s="4"/>
     </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-    </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-      <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
-      <c r="J1001" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A25:J25"/>
+  <mergeCells count="1">
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
